--- a/Details.xlsx
+++ b/Details.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\waw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\waw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3493DE-42E9-4DD8-AE21-B9AAE24E26C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56016AC3-0C61-4755-BE9D-AD35785B039B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC854DFE-6320-45F1-8CE0-511790656844}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
   <si>
     <t>Castle Of Black Iron</t>
   </si>
@@ -256,6 +256,84 @@
   </si>
   <si>
     <t>Action, Adventure, School life, Slice of life, Fantasy, Reincarnation</t>
+  </si>
+  <si>
+    <t>After the Catastrophe, every rule in the world was rewritten.
+In the Age of Black Iron, steel, iron, steam engines and fighting force became the crux in which human beings depended on to survive.
+A commoner boy by the name Zhang Tie was selected by the gods of fortune and was gifted a small tree which could constantly produce various marvelous fruits. At the same time, Zhang Tie was thrown into the flames of war, a three-hundred-year war between the humans and monsters on the vacant continent. Using crystals to tap into the potentials of the human body, one must cultivate to become stronger.
+The thrilling legends of mysterious clans, secrets of Oriental fantasies, numerous treasures and legacies in the underground world — All in the Castle of Black Iron!</t>
+  </si>
+  <si>
+    <t>Action, Ecchi, Fantasy, Harem, Mature, School Life, Sci-fi, Xuanhuan</t>
+  </si>
+  <si>
+    <t>txt file</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Vahn was an atypical youth. Due to a rare mutation, his blood had the potential to target and attack ailments within the human body. Touted as a universal cure, people had elevated his status above the norm and given him the classification "Panacea". In the media, he was hailed as a great hero who would usher in a new era or human wellness. However, behind the scenes things weren't so bright. Being a unique individual, Vahn spent his entire youth locked up in a lab with various scientists and research teams using his body and blood to perform endless amounts of experiments. The only solace in his suffering was the various anime and manga made available to him between experiments. He often imagined himself as the protagonist in a world of his own, finally in control of his own destiny. For years he nurtured this desire, until at the age of 14 he died when an organization had tried to kidnap him from the lab...
+"Finally, I don't have to suffer anymore..."
+This was Vahn's last thought as he faded into the endless black abyss...
+"You poor soul."
+Author's Note: If you would like to support the author and the team behind EPIC and future projects, feel free to check out libraryofakasha.com. There, you can find extra chapters and several other novels posted by myself and a few people from Discord.
+Cover by Sinlaire, Edited by Frozen: https://www.deviantart.com/sinlaire
+https://discord.gg/Jwa8PKh
+New Patreon~! https://www.patreon.com/user?u=14397149
+This is a work of fiction that draws heavily upon the original source material of Danmachi. Please support the official release and know I claim no ownership or credit regarding the existence of pre-existing characters or content.</t>
+  </si>
+  <si>
+    <t>SYSTEM, REINCARNATION, ROMANCE, ACTION, ADVENTURE, DANMACHI</t>
+  </si>
+  <si>
+    <t>Action, Drama, Fantasy, Mature, Psychological, Seinen, Tragedy</t>
+  </si>
+  <si>
+    <t>A lowly child beggar, a noble prince, a monster viewed as the enemy of the entire world. If you possess all three identities at the same time, which identity would you choose to help you earn a better ending?
+Thales did not have the answer.
+He only knew that he came to a different and magnificent world, and he had to face a future that was as difficult to handle as a nightmare.
+The glorious Empire had already been destroyed for one thousand years, the dying royal family suffered many problems, the legendary sacred battle had plenty of conspiracies, the divided world was in chaos.
+But Thales had nothing.
+The only thing he had left was an unswerving deter,mination to preserve his own identity, bravery which would allow him to survive in a perilous situation, and a belief that he would never submit to principles he did not believe.
+“A King does not gain respect by virtue of his bloodline. The bloodline’s glory rests on the deeds of the King.”
+Darkness will baptize light. Fire will create true steel. The forbidden prince’s story starts here.</t>
+  </si>
+  <si>
+    <t>Action, Harem, Mature, Seinen, Xuanhuan, Romance, Fantasy, Xianxia, Political Intrigue</t>
+  </si>
+  <si>
+    <t>In ancient times, there existed giant spirits capable of supporting the heavens. With bodies as enormous as stars, they soared across the universe. Great clan leaders with mysterious blood running through their veins shattered the void and created new worlds. Ancient Qi Warriors crossed a river of stars to enlighten numerous mortal beings. For unknown reasons, an era silently came to an end, all realms were separated, ancient giant spirits disappeared one after another. Thousands of years later, young Nie Tian managed to travel back into ancient times with the help of a drop of blood…</t>
+  </si>
+  <si>
+    <t>Chinese,Romance,Fantasy,Mystery,Xuanhuan,Action,Tragedy,Alchemy,Cooking,</t>
+  </si>
+  <si>
+    <t>In the Divine Realm, countless legends fought over a mysterious cube. After the battle it disappeared into the void. A young man stumbles upon this mystery object, opening a whole new world to him. His name is Lin Ming, and this is his road of martial arts.</t>
+  </si>
+  <si>
+    <t>Sci-fi, Fantasy, Action, Xuanhuan, Ecchi, Martial arts, Romance, Adventure, Harem, Comedy</t>
+  </si>
+  <si>
+    <t>The youngest Wiseman of the continent, Chu Tian, has traveled 30,000 years back in time to the age of antiquity due to an accident. This is a prosperous era. Rare herbs, minerals, treasure relics and monsters can be easily found throughout the land. However, this is also an undeveloped era. Communications, traffic, martial arts and technology are in its early stage of development. Prosperous cities lack lighting while its citizens are uneducated. Our decisive MC using his future knowledge creates Magic powered light bulbs, magic powered telephones, magic powered cannons, magic powered computers, artificial intelligence, psyche internet. 30,000 years worth of knowledge allows him to create miracles and shine brightly in this era. Allowing him to conquer the land and sit firmly on the throne of the 10 realms.</t>
+  </si>
+  <si>
+    <t>Action, Fantasy, Mystery, Drama, Psychological, Tragedy, Supernatural, Adventure, Seinen</t>
+  </si>
+  <si>
+    <t>Zorian is a teenage mage of humble birth and slightly above-average skill, attending his third year of education at Cyoria's magical academy. He is a driven and irritable young man, consumed by a desire to ensure his own future and free himself of the influence of his family, whom he resents for favoring his brothers over him. Consequently, he has no time for pointless distractions or paying attention to other people's problems. As it happens, time is something he is about to get plenty of. On the eve of Cyoria's annual summer festival, he is killed and brought back to the beginning of the month, just before he was about to take a train to Cyoria. Suddenly trapped in a time loop with no clear end or exit, Zorian will have to look both within and without to unravel the mystery before him. And he does have to unravel it, for the time loop hadn't been made for his sake and dangers lurk everywhere... Repetition is the mother of learning, but Zorian will have to first make sure he survives to try again - in a world of magic, even a time traveler isn't safe from those who wish him ill.</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Comedy, Drama, Ecchi, Fantasy, Harem, Martial Arts, Xuanhuan</t>
+  </si>
+  <si>
+    <t>This is a world where humans, demons and mysterious beasts coexist. Humans cultivate mysterious qi. Demons cultivate corporeal bodies. Mysterious beasts cultivate soul perception. A legend says that in the middle of an endless rainforest, there are extremely powerful existences; they are called demon kings. Some demon kings have a tyrannical corporeal body, some are experts in illusions. Some demon kings are proficient in magic, some can even move mountains. Some demon kings are able to sense things thousands of miles away. These demon kings rarely appear in the human world. Even if they emerge in the human world, they would reincarnate in human form; assimilating with mankind while seeking to breakthrough realms</t>
+  </si>
+  <si>
+    <t>*y</t>
+  </si>
+  <si>
+    <t>below 600 is not present</t>
   </si>
 </sst>
 </file>
@@ -628,251 +706,369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1ACEB8-D0CC-4540-B1E1-1535EAC088FE}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.21875" customWidth="1"/>
     <col min="3" max="3" width="84.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>37</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>34</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>57</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>54</v>
       </c>
       <c r="C21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>55</v>
       </c>
       <c r="C22" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>51</v>
       </c>
       <c r="C23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>30</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>49</v>
       </c>
       <c r="C25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>47</v>
       </c>
       <c r="C26" t="s">
